--- a/Task/M2M-002/M2M-002-estimate.xlsx
+++ b/Task/M2M-002/M2M-002-estimate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\F002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\100m2m\m2m-clothing\Task\M2M-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8089E-BC2E-48C0-89D2-34BBE5696A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12975" windowHeight="15375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -50,27 +49,12 @@
     <t>Time(hour)</t>
   </si>
   <si>
-    <t>Create Entity User</t>
-  </si>
-  <si>
-    <t>Create Repo User</t>
-  </si>
-  <si>
-    <t>Create User Service Impl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create User Service </t>
-  </si>
-  <si>
     <t>Thymeleaf</t>
   </si>
   <si>
     <t>Create Controller</t>
   </si>
   <si>
-    <t>Fix bug nếu có</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -86,19 +70,16 @@
     <t>F002_04</t>
   </si>
   <si>
-    <t>F002_05</t>
-  </si>
-  <si>
-    <t>F002_06</t>
-  </si>
-  <si>
-    <t>F002_07</t>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Fix bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,22 +485,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,177 +514,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
         <f>C2/8</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D5" si="0">C3/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D8" si="0">C3/8</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8">
-        <f>SUM(C2:C8)</f>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(C2:C5)</f>
         <v>5</v>
       </c>
-      <c r="D9" s="9">
-        <f>SUM(D2:D8)</f>
+      <c r="D6" s="9">
+        <f>SUM(D2:D5)</f>
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
